--- a/results/logisticregression.xlsx
+++ b/results/logisticregression.xlsx
@@ -173,37 +173,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>51.0</v>
+        <v>44.0</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.1</v>
+        <v>43.2</v>
       </c>
       <c r="E2" t="n">
-        <v>63.6</v>
+        <v>70.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6134841057635175</v>
+        <v>1.3960227272727277</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4334789905019149</v>
+        <v>0.23739063242182845</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3291946648536654</v>
+        <v>0.16886786830348366</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1537531037816704</v>
+        <v>3.153818728114683</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5415086203426023</v>
+        <v>0.6712249759041081</v>
       </c>
       <c r="K2" t="n">
-        <v>8.566165445555402</v>
+        <v>14.818537639201157</v>
       </c>
       <c r="L2" t="n">
-        <v>0.27608189248019527</v>
+        <v>0.14567433775609664</v>
       </c>
     </row>
     <row r="3">
@@ -211,19 +211,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" t="n">
-        <v>48.2</v>
+        <v>49.0</v>
       </c>
       <c r="E3" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5.64059025236155E-32</v>
+        <v>6.448526574412621E-32</v>
       </c>
       <c r="G3" t="n">
         <v>0.9999999999999998</v>
@@ -232,16 +232,16 @@
         <v>1.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.058265319487585</v>
+        <v>0.7605816164784774</v>
       </c>
       <c r="J3" t="n">
-        <v>0.23630374905642115</v>
+        <v>0.1488248209695936</v>
       </c>
       <c r="K3" t="n">
-        <v>4.739347094162103</v>
+        <v>3.88701556337302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9409843712419442</v>
+        <v>0.7423017221689187</v>
       </c>
     </row>
     <row r="4">
@@ -249,37 +249,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>55.0</v>
+        <v>48.0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" t="n">
-        <v>50.9</v>
+        <v>50.0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.6</v>
+        <v>33.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5074404761904763</v>
+        <v>0.11358173076923075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4762489584424624</v>
+        <v>0.7361026617400064</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4267413462803996</v>
+        <v>0.6702077057237991</v>
       </c>
       <c r="I4" t="n">
-        <v>0.338461538462185</v>
+        <v>0.45454545454554657</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05451946309842885</v>
+        <v>0.06790596954567088</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1011984804650523</v>
+        <v>3.042612772196099</v>
       </c>
       <c r="L4" t="n">
-        <v>0.24486280713309636</v>
+        <v>0.4163104684837859</v>
       </c>
     </row>
     <row r="5">
@@ -287,37 +287,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
       </c>
       <c r="D5" t="n">
-        <v>46.3</v>
+        <v>45.7</v>
       </c>
       <c r="E5" t="n">
         <v>62.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.22738715277777768</v>
+        <v>0.246916806020067</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6334680197783878</v>
+        <v>0.6192544651387208</v>
       </c>
       <c r="H5" t="n">
-        <v>0.46672055368915616</v>
+        <v>0.4602136318196488</v>
       </c>
       <c r="I5" t="n">
-        <v>2.1666666666666554</v>
+        <v>2.291666666666654</v>
       </c>
       <c r="J5" t="n">
-        <v>0.41536265612855783</v>
+        <v>0.4201087243302153</v>
       </c>
       <c r="K5" t="n">
-        <v>11.30203781004191</v>
+        <v>12.500897522382955</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3589110994888041</v>
+        <v>0.33803587021055786</v>
       </c>
     </row>
     <row r="6">
@@ -325,37 +325,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="D6" t="n">
-        <v>53.1</v>
+        <v>55.2</v>
       </c>
       <c r="E6" t="n">
-        <v>43.3</v>
+        <v>40.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.26701171874999974</v>
+        <v>0.7048237968927618</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6053434174106673</v>
+        <v>0.4011675601655325</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4594578595896556</v>
+        <v>0.28983236270859764</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6206165767082663</v>
+        <v>0.4877197612622684</v>
       </c>
       <c r="J6" t="n">
-        <v>0.20243106453594695</v>
+        <v>0.1449031210822921</v>
       </c>
       <c r="K6" t="n">
-        <v>1.9026967830655814</v>
+        <v>1.6415834507155629</v>
       </c>
       <c r="L6" t="n">
-        <v>0.40395770848340246</v>
+        <v>0.24624393963870617</v>
       </c>
     </row>
   </sheetData>
@@ -414,37 +414,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>103.0</v>
+        <v>89.0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D2" t="n">
-        <v>41.7</v>
+        <v>46.1</v>
       </c>
       <c r="E2" t="n">
-        <v>14.3</v>
+        <v>20.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0743180767452607</v>
+        <v>0.46048277565131446</v>
       </c>
       <c r="G2" t="n">
-        <v>0.29997212747349067</v>
+        <v>0.497398433754196</v>
       </c>
       <c r="H2" t="n">
-        <v>0.23915307793949978</v>
+        <v>0.37602578257885466</v>
       </c>
       <c r="I2" t="n">
-        <v>0.21428571428572496</v>
+        <v>0.27500000000005653</v>
       </c>
       <c r="J2" t="n">
-        <v>0.023923112782259448</v>
+        <v>0.028313430922906935</v>
       </c>
       <c r="K2" t="n">
-        <v>1.9194144075178554</v>
+        <v>2.6709938546814116</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1684851403588185</v>
+        <v>0.2657179600420105</v>
       </c>
     </row>
     <row r="3">
@@ -452,37 +452,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>103.0</v>
+        <v>87.0</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
       </c>
       <c r="D3" t="n">
-        <v>41.7</v>
+        <v>47.1</v>
       </c>
       <c r="E3" t="n">
         <v>14.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0743180767452607</v>
+        <v>1.6544010177015098</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29997212747349067</v>
+        <v>0.19836098598954804</v>
       </c>
       <c r="H3" t="n">
-        <v>0.23915307793949978</v>
+        <v>0.12589079978992865</v>
       </c>
       <c r="I3" t="n">
-        <v>0.21428571428572535</v>
+        <v>0.16666666666667562</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0239231127822595</v>
+        <v>0.01835917414835212</v>
       </c>
       <c r="K3" t="n">
-        <v>1.919414407517858</v>
+        <v>1.5130189165003394</v>
       </c>
       <c r="L3" t="n">
-        <v>0.16848514035881895</v>
+        <v>0.11138015047653334</v>
       </c>
     </row>
     <row r="4">
@@ -490,37 +490,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>94.0</v>
+        <v>80.0</v>
       </c>
       <c r="C4" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.3</v>
+        <v>42.5</v>
       </c>
       <c r="E4" t="n">
-        <v>50.0</v>
+        <v>57.1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3687389184397163</v>
+        <v>0.526052295918367</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5436924692898248</v>
+        <v>0.46827130129446215</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4163952796365906</v>
+        <v>0.3868027413013603</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7857142857142343</v>
+        <v>2.0512820512820493</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5496404989901015</v>
+        <v>0.5771791712166645</v>
       </c>
       <c r="K4" t="n">
-        <v>5.801565779928682</v>
+        <v>7.290211192205968</v>
       </c>
       <c r="L4" t="n">
-        <v>0.33481912383243356</v>
+        <v>0.26679160522590706</v>
       </c>
     </row>
     <row r="5">
@@ -528,37 +528,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>100.0</v>
+        <v>86.0</v>
       </c>
       <c r="C5" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0</v>
+        <v>45.3</v>
       </c>
       <c r="E5" t="n">
-        <v>40.0</v>
+        <v>37.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>0.003065369707811548</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>0.9558470567956755</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>0.7277794375877248</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9999999999999988</v>
+        <v>0.7000000000000041</v>
       </c>
       <c r="J5" t="n">
-        <v>0.24692333039740627</v>
+        <v>0.14655382015661594</v>
       </c>
       <c r="K5" t="n">
-        <v>4.049840079471494</v>
+        <v>3.3434815924713734</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9999999999999987</v>
+        <v>0.6548281072742667</v>
       </c>
     </row>
     <row r="6">
@@ -566,37 +566,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="C6" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0</v>
+        <v>38.2</v>
       </c>
       <c r="E6" t="n">
-        <v>42.9</v>
+        <v>48.3</v>
       </c>
       <c r="F6" t="n">
-        <v>0.36830357142857145</v>
+        <v>0.5333831609566905</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5439304222002513</v>
+        <v>0.4651879709772351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5442519176775961</v>
+        <v>0.3925162838120289</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5003954423484085</v>
+        <v>1.6841120132963467</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6126233800640702</v>
+        <v>0.6346791512564917</v>
       </c>
       <c r="K6" t="n">
-        <v>3.674666290379645</v>
+        <v>4.468767041920481</v>
       </c>
       <c r="L6" t="n">
-        <v>0.37465955481239616</v>
+        <v>0.29516179981653606</v>
       </c>
     </row>
   </sheetData>
@@ -667,49 +667,49 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>51.0</v>
+        <v>44.0</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.1</v>
+        <v>43.2</v>
       </c>
       <c r="E2" t="n">
-        <v>63.6</v>
+        <v>70.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6134841057635175</v>
+        <v>1.3960227272727277</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4334789905019149</v>
+        <v>0.23739063242182845</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3291946648536654</v>
+        <v>0.16886786830348366</v>
       </c>
       <c r="I2" t="n">
-        <v>1.9562884394180906</v>
+        <v>2.8656930109265533</v>
       </c>
       <c r="J2" t="n">
-        <v>0.46881953574533003</v>
+        <v>0.5592561166281391</v>
       </c>
       <c r="K2" t="n">
-        <v>8.163193225548069</v>
+        <v>14.684142361081678</v>
       </c>
       <c r="L2" t="n">
-        <v>0.35723177887897917</v>
+        <v>0.20663730734206354</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0647505821763366</v>
+        <v>0.07475652646079606</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.00455714060040488</v>
+        <v>-0.002999326648454398</v>
       </c>
       <c r="O2" t="n">
-        <v>0.13405830495307808</v>
+        <v>0.1525123795700465</v>
       </c>
       <c r="P2" t="n">
-        <v>0.06708682891902265</v>
+        <v>0.059516157313401305</v>
       </c>
     </row>
     <row r="3">
@@ -717,19 +717,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" t="n">
-        <v>48.2</v>
+        <v>49.0</v>
       </c>
       <c r="E3" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5.64059025236155E-32</v>
+        <v>6.448526574412621E-32</v>
       </c>
       <c r="G3" t="n">
         <v>0.9999999999999998</v>
@@ -738,28 +738,28 @@
         <v>1.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.1303563108683456</v>
+        <v>0.7283723145029978</v>
       </c>
       <c r="J3" t="n">
-        <v>0.23502047747379576</v>
+        <v>0.11763009076859594</v>
       </c>
       <c r="K3" t="n">
-        <v>5.436570477831478</v>
+        <v>4.510123430730958</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8784706283427504</v>
+        <v>0.73332550574981</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06578348268909676</v>
+        <v>0.07463031256379918</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.002034154215187517</v>
+        <v>0.001230708494526958</v>
       </c>
       <c r="O3" t="n">
-        <v>0.13360111959338103</v>
+        <v>0.1480299166330714</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05727897670861928</v>
+        <v>0.04628037621998665</v>
       </c>
     </row>
     <row r="4">
@@ -767,49 +767,49 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>55.0</v>
+        <v>48.0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" t="n">
-        <v>50.9</v>
+        <v>50.0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.6</v>
+        <v>33.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5074404761904763</v>
+        <v>0.11358173076923075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4762489584424624</v>
+        <v>0.7361026617400064</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4267413462803996</v>
+        <v>0.6702077057237991</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4225305250888382</v>
+        <v>0.6960617129996538</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05801211155025323</v>
+        <v>0.07951563427919371</v>
       </c>
       <c r="K4" t="n">
-        <v>3.077496058339391</v>
+        <v>6.093165359190105</v>
       </c>
       <c r="L4" t="n">
-        <v>0.39512127839977096</v>
+        <v>0.7434215231081056</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0646205312707279</v>
+        <v>0.07379483003848411</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.006558886814651332</v>
+        <v>-0.0013569380622018151</v>
       </c>
       <c r="O4" t="n">
-        <v>0.13579994935610712</v>
+        <v>0.14894659813917005</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07518051918307611</v>
+        <v>0.05428255780128915</v>
       </c>
     </row>
     <row r="5">
@@ -817,49 +817,49 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
       </c>
       <c r="D5" t="n">
-        <v>46.3</v>
+        <v>45.7</v>
       </c>
       <c r="E5" t="n">
         <v>62.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.22738715277777768</v>
+        <v>0.246916806020067</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6334680197783878</v>
+        <v>0.6192544651387208</v>
       </c>
       <c r="H5" t="n">
-        <v>0.46672055368915616</v>
+        <v>0.4602136318196488</v>
       </c>
       <c r="I5" t="n">
-        <v>2.0609295621860446</v>
+        <v>1.938483533348898</v>
       </c>
       <c r="J5" t="n">
-        <v>0.34600217420152385</v>
+        <v>0.3004427039560517</v>
       </c>
       <c r="K5" t="n">
-        <v>12.275734018418355</v>
+        <v>12.5072713019335</v>
       </c>
       <c r="L5" t="n">
-        <v>0.42703401112842965</v>
+        <v>0.4865341175856641</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06537766297264075</v>
+        <v>0.07343216403051282</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.003442633783650978</v>
+        <v>-0.0014497146943123485</v>
       </c>
       <c r="O5" t="n">
-        <v>0.13419795972893248</v>
+        <v>0.148314042755338</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06261441279150352</v>
+        <v>0.05460336177000427</v>
       </c>
     </row>
     <row r="6">
@@ -867,49 +867,49 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="D6" t="n">
-        <v>53.1</v>
+        <v>55.2</v>
       </c>
       <c r="E6" t="n">
-        <v>43.3</v>
+        <v>40.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.26701171874999974</v>
+        <v>0.7048237968927618</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6053434174106673</v>
+        <v>0.4011675601655325</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4594578595896556</v>
+        <v>0.28983236270859764</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5929130827570218</v>
+        <v>0.49876973402429864</v>
       </c>
       <c r="J6" t="n">
-        <v>0.18565125771360239</v>
+        <v>0.14262415609930665</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8935822360371637</v>
+        <v>1.7442434324060407</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3776236406482147</v>
+        <v>0.27614738784635345</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06690103896912988</v>
+        <v>0.07506889364483546</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0017406394519799556</v>
+        <v>-4.578585077391478E-4</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1355427173902397</v>
+        <v>0.15059564579741008</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05609941848759481</v>
+        <v>0.051405118149851506</v>
       </c>
     </row>
   </sheetData>
@@ -980,49 +980,49 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>103.0</v>
+        <v>89.0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D2" t="n">
-        <v>41.7</v>
+        <v>46.1</v>
       </c>
       <c r="E2" t="n">
-        <v>14.3</v>
+        <v>20.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0743180767452607</v>
+        <v>0.46048277565131446</v>
       </c>
       <c r="G2" t="n">
-        <v>0.29997212747349067</v>
+        <v>0.497398433754196</v>
       </c>
       <c r="H2" t="n">
-        <v>0.23915307793949978</v>
+        <v>0.37602578257885466</v>
       </c>
       <c r="I2" t="n">
-        <v>0.29006763331024554</v>
+        <v>0.4067858565840961</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02777246387981524</v>
+        <v>0.029554843920964042</v>
       </c>
       <c r="K2" t="n">
-        <v>3.0295919101134805</v>
+        <v>5.598903975245868</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3011567544177702</v>
+        <v>0.5013615002550971</v>
       </c>
       <c r="M2" t="n">
-        <v>0.10926056903860175</v>
+        <v>0.17125311868137436</v>
       </c>
       <c r="N2" t="n">
-        <v>0.043172185955182615</v>
+        <v>0.07373810655715791</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1753489521220209</v>
+        <v>0.2687681308055908</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0011940024771076839</v>
+        <v>5.773586051061447E-4</v>
       </c>
     </row>
     <row r="3">
@@ -1030,49 +1030,49 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>103.0</v>
+        <v>87.0</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
       </c>
       <c r="D3" t="n">
-        <v>41.7</v>
+        <v>47.1</v>
       </c>
       <c r="E3" t="n">
         <v>14.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0743180767452607</v>
+        <v>1.6544010177015098</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29997212747349067</v>
+        <v>0.19836098598954804</v>
       </c>
       <c r="H3" t="n">
-        <v>0.23915307793949978</v>
+        <v>0.12589079978992865</v>
       </c>
       <c r="I3" t="n">
-        <v>0.29963141290460293</v>
+        <v>0.1578555279473588</v>
       </c>
       <c r="J3" t="n">
-        <v>0.026732149576175288</v>
+        <v>0.009114432333648233</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3584648082031947</v>
+        <v>2.733946206561535</v>
       </c>
       <c r="L3" t="n">
-        <v>0.32835399704896706</v>
+        <v>0.20453117270130605</v>
       </c>
       <c r="M3" t="n">
-        <v>0.10746029285986647</v>
+        <v>0.16876640530035233</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04249484491491376</v>
+        <v>0.07287865584342015</v>
       </c>
       <c r="O3" t="n">
-        <v>0.17242574080481918</v>
+        <v>0.2646541547572845</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001186919611062583</v>
+        <v>5.613809808824204E-4</v>
       </c>
     </row>
     <row r="4">
@@ -1080,49 +1080,49 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>94.0</v>
+        <v>80.0</v>
       </c>
       <c r="C4" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.3</v>
+        <v>42.5</v>
       </c>
       <c r="E4" t="n">
-        <v>50.0</v>
+        <v>57.1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3687389184397163</v>
+        <v>0.526052295918367</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5436924692898248</v>
+        <v>0.46827130129446215</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4163952796365906</v>
+        <v>0.3868027413013603</v>
       </c>
       <c r="I4" t="n">
-        <v>1.884672660886175</v>
+        <v>1.9815463721332824</v>
       </c>
       <c r="J4" t="n">
-        <v>0.46927683034873097</v>
+        <v>0.3567364595626421</v>
       </c>
       <c r="K4" t="n">
-        <v>7.569073964406477</v>
+        <v>11.006797650367677</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3716328070919855</v>
+        <v>0.43437555717563936</v>
       </c>
       <c r="M4" t="n">
-        <v>0.10982715765590591</v>
+        <v>0.16954732289155355</v>
       </c>
       <c r="N4" t="n">
-        <v>0.045850685232909694</v>
+        <v>0.0729705188746206</v>
       </c>
       <c r="O4" t="n">
-        <v>0.17380363007890212</v>
+        <v>0.2661241269084865</v>
       </c>
       <c r="P4" t="n">
-        <v>7.664586742636514E-4</v>
+        <v>5.798821341650703E-4</v>
       </c>
     </row>
     <row r="5">
@@ -1130,49 +1130,49 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>100.0</v>
+        <v>86.0</v>
       </c>
       <c r="C5" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0</v>
+        <v>45.3</v>
       </c>
       <c r="E5" t="n">
-        <v>40.0</v>
+        <v>37.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>0.003065369707811548</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>0.9558470567956755</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>0.7277794375877248</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3800751780371645</v>
+        <v>0.1954091008967728</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06259606009012401</v>
+        <v>0.018779224915335017</v>
       </c>
       <c r="K5" t="n">
-        <v>2.307767305993334</v>
+        <v>2.033348920705651</v>
       </c>
       <c r="L5" t="n">
-        <v>0.29315970142328124</v>
+        <v>0.17189706950494898</v>
       </c>
       <c r="M5" t="n">
-        <v>0.12161409609291157</v>
+        <v>0.18891685944806824</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05202656051447914</v>
+        <v>0.08463171578800566</v>
       </c>
       <c r="O5" t="n">
-        <v>0.19120163167134402</v>
+        <v>0.2932020031081308</v>
       </c>
       <c r="P5" t="n">
-        <v>6.140863737287606E-4</v>
+        <v>3.8441837005796634E-4</v>
       </c>
     </row>
     <row r="6">
@@ -1180,49 +1180,49 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="C6" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0</v>
+        <v>38.2</v>
       </c>
       <c r="E6" t="n">
-        <v>42.9</v>
+        <v>48.3</v>
       </c>
       <c r="F6" t="n">
-        <v>0.36830357142857145</v>
+        <v>0.5333831609566905</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5439304222002513</v>
+        <v>0.4651879709772351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5442519176775961</v>
+        <v>0.3925162838120289</v>
       </c>
       <c r="I6" t="n">
-        <v>1.785099881926446</v>
+        <v>2.584346366110995</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6189205516893614</v>
+        <v>0.6619219388309694</v>
       </c>
       <c r="K6" t="n">
-        <v>5.148611691364821</v>
+        <v>10.090081244061373</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2836225313463482</v>
+        <v>0.1718628182586956</v>
       </c>
       <c r="M6" t="n">
-        <v>0.11598918492511262</v>
+        <v>0.1822641396770666</v>
       </c>
       <c r="N6" t="n">
-        <v>0.048100476662441743</v>
+        <v>0.08197190479902594</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1838778931877835</v>
+        <v>0.28255637455510724</v>
       </c>
       <c r="P6" t="n">
-        <v>8.121018563780068E-4</v>
+        <v>3.6817729996239734E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1281,37 +1281,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>154.0</v>
+        <v>133.0</v>
       </c>
       <c r="C2" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="D2" t="n">
         <v>66.9</v>
       </c>
       <c r="E2" t="n">
-        <v>38.9</v>
+        <v>33.3</v>
       </c>
       <c r="F2" t="n">
-        <v>4.331606809612674</v>
+        <v>5.191462501802181</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03741091380693199</v>
+        <v>0.022698107203319738</v>
       </c>
       <c r="H2" t="n">
-        <v>0.035032197405565214</v>
+        <v>0.020470743381605323</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3067654648062873</v>
+        <v>0.24457768742270006</v>
       </c>
       <c r="J2" t="n">
-        <v>0.10811418041575223</v>
+        <v>0.07552327309408449</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8704228255344236</v>
+        <v>0.7920504863516218</v>
       </c>
       <c r="L2" t="n">
-        <v>0.026366357255256323</v>
+        <v>0.018833652565766745</v>
       </c>
     </row>
     <row r="3">
@@ -1319,37 +1319,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>159.0</v>
+        <v>136.0</v>
       </c>
       <c r="C3" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="D3" t="n">
-        <v>64.8</v>
+        <v>64.0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.8</v>
+        <v>58.3</v>
       </c>
       <c r="F3" t="n">
-        <v>0.23914409793898514</v>
+        <v>0.005788485607008804</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6248249768271177</v>
+        <v>0.9393537827334</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5494295852301911</v>
+        <v>0.7586349262954029</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6565989288202577</v>
+        <v>0.8046785153878161</v>
       </c>
       <c r="J3" t="n">
-        <v>0.21888204357996927</v>
+        <v>0.25523508634248165</v>
       </c>
       <c r="K3" t="n">
-        <v>1.9696551908809181</v>
+        <v>2.5369063572156993</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4529170091632432</v>
+        <v>0.7106888340836328</v>
       </c>
     </row>
     <row r="4">
@@ -1357,37 +1357,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>149.0</v>
+        <v>128.0</v>
       </c>
       <c r="C4" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.1</v>
+        <v>62.5</v>
       </c>
       <c r="E4" t="n">
-        <v>69.6</v>
+        <v>70.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.13611556323041013</v>
+        <v>0.15858574665090605</v>
       </c>
       <c r="G4" t="n">
-        <v>0.712173619768578</v>
+        <v>0.6904619368725136</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6446893829672276</v>
+        <v>0.6218672518839341</v>
       </c>
       <c r="I4" t="n">
-        <v>1.406593406592036</v>
+        <v>1.4848484848467491</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5054685100862256</v>
+        <v>0.49337349546230874</v>
       </c>
       <c r="K4" t="n">
-        <v>3.914200334914404</v>
+        <v>4.468774758331381</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5135195303096269</v>
+        <v>0.48192439519269387</v>
       </c>
     </row>
     <row r="5">
@@ -1395,37 +1395,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>154.0</v>
+        <v>132.0</v>
       </c>
       <c r="C5" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="D5" t="n">
-        <v>64.9</v>
+        <v>65.2</v>
       </c>
       <c r="E5" t="n">
-        <v>55.6</v>
+        <v>50.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2754541646037244</v>
+        <v>0.8354421878358046</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5996963171568095</v>
+        <v>0.3607035694166061</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4462888490715981</v>
+        <v>0.2757969234873387</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6388888888889817</v>
+        <v>0.48717948717963055</v>
       </c>
       <c r="J5" t="n">
-        <v>0.22206801946703827</v>
+        <v>0.1584865551405812</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8380810227669182</v>
+        <v>1.4975645884793094</v>
       </c>
       <c r="L5" t="n">
-        <v>0.405997308261282</v>
+        <v>0.20943474925542827</v>
       </c>
     </row>
     <row r="6">
@@ -1433,37 +1433,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>72.0</v>
+        <v>63.0</v>
       </c>
       <c r="C6" t="n">
-        <v>100.0</v>
+        <v>85.0</v>
       </c>
       <c r="D6" t="n">
-        <v>55.6</v>
+        <v>54.0</v>
       </c>
       <c r="E6" t="n">
-        <v>70.0</v>
+        <v>70.6</v>
       </c>
       <c r="F6" t="n">
-        <v>3.1879266862170064</v>
+        <v>3.6254418552290892</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07418404372586856</v>
+        <v>0.05690246028820341</v>
       </c>
       <c r="H6" t="n">
-        <v>0.055582271153584495</v>
+        <v>0.040596528692417255</v>
       </c>
       <c r="I6" t="n">
-        <v>2.1380623633551608</v>
+        <v>2.3809879492924813</v>
       </c>
       <c r="J6" t="n">
-        <v>1.0367754347562372</v>
+        <v>1.0846235703436842</v>
       </c>
       <c r="K6" t="n">
-        <v>4.409161826515155</v>
+        <v>5.226793672646859</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03961297341741577</v>
+        <v>0.030583260863852147</v>
       </c>
     </row>
   </sheetData>
@@ -1534,49 +1534,49 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>154.0</v>
+        <v>133.0</v>
       </c>
       <c r="C2" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="D2" t="n">
         <v>66.9</v>
       </c>
       <c r="E2" t="n">
-        <v>38.9</v>
+        <v>33.3</v>
       </c>
       <c r="F2" t="n">
-        <v>4.331606809612674</v>
+        <v>5.191462501802181</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03741091380693199</v>
+        <v>0.022698107203319738</v>
       </c>
       <c r="H2" t="n">
-        <v>0.035032197405565214</v>
+        <v>0.020470743381605323</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2950774226846131</v>
+        <v>0.2500371876561743</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09101746119323421</v>
+        <v>0.0674904948447683</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9566371577134942</v>
+        <v>0.926331853912243</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04196812415380062</v>
+        <v>0.03803411602258722</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.07507576628771465</v>
+        <v>-0.07288634353453778</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.11727939455527166</v>
+        <v>-0.11861011673474875</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.032872138020157635</v>
+        <v>-0.027162570334326806</v>
       </c>
       <c r="P2" t="n">
-        <v>4.89261925932557E-4</v>
+        <v>0.00178230974995967</v>
       </c>
     </row>
     <row r="3">
@@ -1584,49 +1584,49 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>159.0</v>
+        <v>136.0</v>
       </c>
       <c r="C3" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="D3" t="n">
-        <v>64.8</v>
+        <v>64.0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.8</v>
+        <v>58.3</v>
       </c>
       <c r="F3" t="n">
-        <v>0.23914409793898514</v>
+        <v>0.005788485607008804</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6248249768271177</v>
+        <v>0.9393537827334</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5494295852301911</v>
+        <v>0.7586349262954029</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5218610045144769</v>
+        <v>0.6803209713633757</v>
       </c>
       <c r="J3" t="n">
-        <v>0.15620242987969749</v>
+        <v>0.1957020230547178</v>
       </c>
       <c r="K3" t="n">
-        <v>1.7434998177852057</v>
+        <v>2.365006844857189</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2906380615607177</v>
+        <v>0.5445675533686525</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.07679455473063962</v>
+        <v>-0.07466826190388799</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.11853208197818282</v>
+        <v>-0.11916900424700004</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.03505702748309642</v>
+        <v>-0.030167519560775943</v>
       </c>
       <c r="P3" t="n">
-        <v>3.106938902134099E-4</v>
+        <v>0.001006712325077989</v>
       </c>
     </row>
     <row r="4">
@@ -1634,49 +1634,49 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>149.0</v>
+        <v>128.0</v>
       </c>
       <c r="C4" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.1</v>
+        <v>62.5</v>
       </c>
       <c r="E4" t="n">
-        <v>69.6</v>
+        <v>70.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.13611556323041013</v>
+        <v>0.15858574665090605</v>
       </c>
       <c r="G4" t="n">
-        <v>0.712173619768578</v>
+        <v>0.6904619368725136</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6446893829672276</v>
+        <v>0.6218672518839341</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2555810596653942</v>
+        <v>1.3623672928728843</v>
       </c>
       <c r="J4" t="n">
-        <v>0.40786560410540623</v>
+        <v>0.40721977356990013</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8652040807615093</v>
+        <v>4.557845078147211</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6915697111719302</v>
+        <v>0.6157611329310883</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.07439013366693999</v>
+        <v>-0.07364258159742192</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.11556386702394328</v>
+        <v>-0.1181520967454886</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.033216400309936694</v>
+        <v>-0.029133066449355226</v>
       </c>
       <c r="P4" t="n">
-        <v>3.9840107124072555E-4</v>
+        <v>0.001183486486106188</v>
       </c>
     </row>
     <row r="5">
@@ -1684,49 +1684,49 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>154.0</v>
+        <v>132.0</v>
       </c>
       <c r="C5" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="D5" t="n">
-        <v>64.9</v>
+        <v>65.2</v>
       </c>
       <c r="E5" t="n">
-        <v>55.6</v>
+        <v>50.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2754541646037244</v>
+        <v>0.8354421878358046</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5996963171568095</v>
+        <v>0.3607035694166061</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4462888490715981</v>
+        <v>0.2757969234873387</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9597781345232718</v>
+        <v>0.6913275539073951</v>
       </c>
       <c r="J5" t="n">
-        <v>0.29407473393627676</v>
+        <v>0.19847573026638912</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1324488682818346</v>
+        <v>2.408021303915152</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9457670468777571</v>
+        <v>0.5620794918797489</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.07419958117058738</v>
+        <v>-0.0715039708640029</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1157288541160481</v>
+        <v>-0.11609033615240226</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03267030822512666</v>
+        <v>-0.026917605575603534</v>
       </c>
       <c r="P5" t="n">
-        <v>4.6207213985903045E-4</v>
+        <v>0.0016709440359601582</v>
       </c>
     </row>
     <row r="6">
@@ -1734,49 +1734,49 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>72.0</v>
+        <v>63.0</v>
       </c>
       <c r="C6" t="n">
-        <v>100.0</v>
+        <v>85.0</v>
       </c>
       <c r="D6" t="n">
-        <v>55.6</v>
+        <v>54.0</v>
       </c>
       <c r="E6" t="n">
-        <v>70.0</v>
+        <v>70.6</v>
       </c>
       <c r="F6" t="n">
-        <v>3.1879266862170064</v>
+        <v>3.6254418552290892</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07418404372586856</v>
+        <v>0.05690246028820341</v>
       </c>
       <c r="H6" t="n">
-        <v>0.055582271153584495</v>
+        <v>0.040596528692417255</v>
       </c>
       <c r="I6" t="n">
-        <v>2.071837750892135</v>
+        <v>2.2171178412933386</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9491983920021547</v>
+        <v>0.952749230683809</v>
       </c>
       <c r="K6" t="n">
-        <v>4.52224919699615</v>
+        <v>5.159396999620973</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06739202977137058</v>
+        <v>0.06465427879007885</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.07308713737767385</v>
+        <v>-0.07079292788487644</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1144156338028459</v>
+        <v>-0.11541659893248724</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.03175864095250179</v>
+        <v>-0.02616925683726564</v>
       </c>
       <c r="P6" t="n">
-        <v>5.280927105824565E-4</v>
+        <v>0.0018748556144031214</v>
       </c>
     </row>
   </sheetData>
